--- a/biology/Neurosciences/Neurone_Q/Neurone_Q.xlsx
+++ b/biology/Neurosciences/Neurone_Q/Neurone_Q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neurones Q sont une population de neurones pouvant provoquer l'hibernation.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont découverts chez la souris en 2020, indépendamment à l'université de Tsukuba[1] (préfecture d'Ibaraki, Japon) et à l'université Harvard[2] (Massachusetts, États-Unis). En activant ces neurones, on plonge les souris dans un état de torpeur proche de l'hibernation, dans lequel la température corporelle descend à 23–24 °C. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont découverts chez la souris en 2020, indépendamment à l'université de Tsukuba (préfecture d'Ibaraki, Japon) et à l'université Harvard (Massachusetts, États-Unis). En activant ces neurones, on plonge les souris dans un état de torpeur proche de l'hibernation, dans lequel la température corporelle descend à 23–24 °C. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neurones Q expriment l'amide pyroglutamyle RF (QRFP (en), un peptide) et excitent le noyau préoptique médian (en) de l'hypothalamus, dont on savait déjà qu'il est impliqué dans la régulation thermique des mammifères[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neurones Q expriment l'amide pyroglutamyle RF (QRFP (en), un peptide) et excitent le noyau préoptique médian (en) de l'hypothalamus, dont on savait déjà qu'il est impliqué dans la régulation thermique des mammifères.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Présence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les neurones Q et le mécanisme de régulation thermique sont très semblables chez différents mammifères. 
 Les neurones Q ont été découverts chez la souris.
-Ils sont également présents chez les rats, qui n'hibernent pas. Leur excitation provoque aussi un état de torpeur[1].
-Il est plausible que les neurones Q existent aussi chez l'homme, leur excitation pourrait conduire à une hibernation artificielle, à des fins thérapeutiques[3].</t>
+Ils sont également présents chez les rats, qui n'hibernent pas. Leur excitation provoque aussi un état de torpeur.
+Il est plausible que les neurones Q existent aussi chez l'homme, leur excitation pourrait conduire à une hibernation artificielle, à des fins thérapeutiques.</t>
         </is>
       </c>
     </row>
